--- a/config_debug/activity_024_lgfl1_config.xlsx
+++ b/config_debug/activity_024_lgfl1_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础配置" sheetId="6" r:id="rId1"/>
@@ -253,19 +253,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>xycd_btn_hdgz</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>"太阳眼镜","空调被","美的风扇",</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>"雨伞","矿泉水","鸭舌帽",</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.活动时间：7月21日7:30-7月27日23:59:59</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -302,6 +294,14 @@
   </si>
   <si>
     <t>800000,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.活动时间：8月11日7:30-8月17日23:59:59</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xycd_btn_hdgz</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -789,7 +789,7 @@
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -883,7 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -986,13 +986,13 @@
         <v>41</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>42</v>
@@ -1025,14 +1025,14 @@
         <v>41</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L3" s="9" t="s">
         <v>42</v>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -1096,7 +1096,7 @@
         <v>41</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -1128,7 +1128,7 @@
         <v>41</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -1156,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1183,10 +1183,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">

--- a/config_debug/activity_024_lgfl1_config.xlsx
+++ b/config_debug/activity_024_lgfl1_config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>index|索引</t>
   </si>
@@ -213,35 +213,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每天在游戏中累计购买3次2498元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次998元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次498元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次198元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天在游戏中累计购买3次98元</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>实物奖励三选一</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.活动任务每天0点重置，未领取的奖励视为自动放弃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.活动中的图片仅作为参考，请以实际发出的奖励为准；</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -302,6 +274,46 @@
   </si>
   <si>
     <t>xycd_btn_hdgz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在商城中累计购买3次2498元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在商城中累计购买3次998元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在商城中累计购买3次498元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在商城中累计购买3次198元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天在商城中累计购买3次98元</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lgfl_bg_bg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.活动期间累计购买指定金额达到指定次数，可领取连购奖励。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.活动任务每天0点重置，未领取的奖励视为放弃。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.活动图片仅供参考，请以实际发出的奖励为准。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.实物奖励三选一，获得实物奖励的玩家请联系微信公众号“畅游新世界”领取奖励</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -787,9 +799,11 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="C2" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -845,7 +859,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -884,7 +898,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -977,28 +991,28 @@
         <v>3</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O2" s="14"/>
       <c r="P2" s="8"/>
@@ -1016,29 +1030,29 @@
         <v>3</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="O3" s="15"/>
       <c r="Q3" s="8"/>
@@ -1055,21 +1069,21 @@
         <v>3</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="L4" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="15"/>
@@ -1087,21 +1101,21 @@
         <v>3</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="L5" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="15"/>
@@ -1119,21 +1133,21 @@
         <v>3</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="L6" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="15"/>
@@ -1157,7 +1171,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1183,10 +1197,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -1194,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
@@ -1202,14 +1216,24 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="11"/>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="B6" s="11"/>
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
